--- a/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/08,25/18,08,25 Ост КИ Ташкент/дв 18,08,25 тшрсч ост ки от Лыгина.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/08,25/18,08,25 Ост КИ Ташкент/дв 18,08,25 тшрсч ост ки от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\18,08,25 Ост КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\Ташкент\2025\08,25\18,08,25 Ост КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE074F41-1FC1-4D6F-A996-27D141D36699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C027E-7D29-4DF0-B931-4078686A79E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>заказ</t>
+  </si>
+  <si>
+    <t>26,08,</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1613,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1886,7 @@
         <v>25</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
